--- a/Task states.xlsx
+++ b/Task states.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Pouring</t>
+  </si>
+  <si>
+    <t>-&gt; WZ</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -455,13 +458,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>289</v>
       </c>
       <c r="E3">
-        <v>1498</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -469,13 +475,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>372</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,13 +492,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>417</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,13 +509,13 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -511,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -525,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -539,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -550,38 +562,38 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -590,12 +602,12 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -609,7 +621,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -623,7 +635,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -637,7 +649,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -651,7 +663,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -665,41 +677,38 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -710,10 +719,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -724,10 +733,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -738,10 +747,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -752,10 +761,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -766,10 +775,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -780,194 +789,164 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>45</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -976,151 +955,127 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>518</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>160</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <v>10</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <v>10</v>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1054</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1063</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1202</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B46">
         <v>11</v>
@@ -1129,29 +1084,32 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>1446</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>244</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>11</v>
       </c>
       <c r="C47" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>377</v>
       </c>
       <c r="E47">
-        <v>53</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -1160,12 +1118,12 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B49">
         <v>11</v>
@@ -1179,58 +1137,52 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1253</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>1252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -1241,10 +1193,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -1255,7 +1207,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B55">
         <v>12</v>
@@ -1264,12 +1216,12 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <v>12</v>
@@ -1283,7 +1235,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B57">
         <v>12</v>
@@ -1297,151 +1249,139 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B58">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B61">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>796</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B65">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B66">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B67">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -1452,10 +1392,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B68">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -1466,10 +1406,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -1480,10 +1420,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B70">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -1494,10 +1434,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -1508,10 +1448,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -1522,55 +1462,55 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B74">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C74" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>877</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>877</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -1581,10 +1521,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -1595,10 +1535,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B78">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -1609,10 +1549,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -1623,10 +1563,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B80">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -1637,10 +1577,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -1654,7 +1594,7 @@
         <v>5</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -1671,16 +1611,13 @@
         <v>6</v>
       </c>
       <c r="B83">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>616</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1688,13 +1625,13 @@
         <v>7</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1702,7 +1639,7 @@
         <v>8</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -1716,7 +1653,7 @@
         <v>9</v>
       </c>
       <c r="B86">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -1730,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -1744,7 +1681,7 @@
         <v>11</v>
       </c>
       <c r="B88">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -1758,7 +1695,7 @@
         <v>12</v>
       </c>
       <c r="B89">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -1769,38 +1706,38 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B90">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>1499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>426</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B92">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
@@ -1811,10 +1748,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -1825,10 +1762,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B94">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
@@ -1839,10 +1776,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B95">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -1853,10 +1790,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -1867,15 +1804,169 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
       <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>25</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99">
+        <v>25</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>27</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101">
+        <v>27</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>27</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>27</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>27</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105">
+        <v>27</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106">
+        <v>27</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107">
+        <v>27</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108">
+        <v>27</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108">
         <v>0</v>
       </c>
     </row>

--- a/Task states.xlsx
+++ b/Task states.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>Casting node</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>LST</t>
+  </si>
+  <si>
+    <t>EFT</t>
+  </si>
+  <si>
+    <t>LFT</t>
   </si>
   <si>
     <t>-&gt; H</t>
@@ -413,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +450,25 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -450,12 +480,27 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>751</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -467,12 +512,27 @@
         <v>289</v>
       </c>
       <c r="E3">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>216288</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>29</v>
+      </c>
+      <c r="I3">
+        <v>289</v>
+      </c>
+      <c r="J3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -481,15 +541,21 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>372</v>
+        <v>564</v>
       </c>
       <c r="E4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>611884</v>
+      </c>
+      <c r="G4">
+        <v>289</v>
+      </c>
+      <c r="I4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -498,71 +564,113 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>417</v>
+        <v>609</v>
       </c>
       <c r="E5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>25617</v>
+      </c>
+      <c r="G5">
+        <v>289</v>
+      </c>
+      <c r="I5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>751</v>
       </c>
       <c r="E6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>80066</v>
+      </c>
+      <c r="G6">
+        <v>333</v>
+      </c>
+      <c r="I6">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1297</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>250929</v>
+      </c>
+      <c r="G7">
+        <v>474</v>
+      </c>
+      <c r="I7">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1373</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>35007</v>
+      </c>
+      <c r="G8">
+        <v>474</v>
+      </c>
+      <c r="I8">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1398</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>11152</v>
+      </c>
+      <c r="G9">
+        <v>549</v>
+      </c>
+      <c r="I9">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -571,12 +679,21 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>267739</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>573</v>
+      </c>
+      <c r="I10">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -588,110 +705,233 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>751</v>
+      </c>
+      <c r="F11">
+        <v>75</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>203</v>
       </c>
       <c r="E12">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>151702</v>
+      </c>
+      <c r="F12">
+        <v>75</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>203</v>
+      </c>
+      <c r="J12">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>333</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>202781</v>
+      </c>
+      <c r="G13">
+        <v>203</v>
+      </c>
+      <c r="H13">
+        <v>825</v>
+      </c>
+      <c r="I13">
+        <v>203</v>
+      </c>
+      <c r="J13">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>378</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>32040</v>
+      </c>
+      <c r="G14">
+        <v>203</v>
+      </c>
+      <c r="H14">
+        <v>825</v>
+      </c>
+      <c r="I14">
+        <v>247</v>
+      </c>
+      <c r="J14">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>480</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>72624</v>
+      </c>
+      <c r="G15">
+        <v>247</v>
+      </c>
+      <c r="H15">
+        <v>869</v>
+      </c>
+      <c r="I15">
+        <v>348</v>
+      </c>
+      <c r="J15">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>630</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>222706</v>
+      </c>
+      <c r="G16">
+        <v>348</v>
+      </c>
+      <c r="H16">
+        <v>970</v>
+      </c>
+      <c r="I16">
+        <v>348</v>
+      </c>
+      <c r="J16">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>706</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>53282</v>
+      </c>
+      <c r="G17">
+        <v>348</v>
+      </c>
+      <c r="H17">
+        <v>970</v>
+      </c>
+      <c r="I17">
+        <v>423</v>
+      </c>
+      <c r="J17">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>730</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>16824</v>
+      </c>
+      <c r="G18">
+        <v>423</v>
+      </c>
+      <c r="H18">
+        <v>1045</v>
+      </c>
+      <c r="I18">
+        <v>446</v>
+      </c>
+      <c r="J18">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -699,13 +939,31 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
+      <c r="D19">
+        <v>1287</v>
+      </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>608354</v>
+      </c>
+      <c r="F19">
+        <v>86</v>
+      </c>
+      <c r="G19">
+        <v>446</v>
+      </c>
+      <c r="H19">
+        <v>1068</v>
+      </c>
+      <c r="I19">
+        <v>446</v>
+      </c>
+      <c r="J19">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -713,13 +971,31 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
+      <c r="D20">
+        <v>1362</v>
+      </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>16710</v>
+      </c>
+      <c r="F20">
+        <v>86</v>
+      </c>
+      <c r="G20">
+        <v>1068</v>
+      </c>
+      <c r="H20">
+        <v>1068</v>
+      </c>
+      <c r="I20">
+        <v>1362</v>
+      </c>
+      <c r="J20">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -727,13 +1003,22 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
+      <c r="D21">
+        <v>1508</v>
+      </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>111686</v>
+      </c>
+      <c r="G21">
+        <v>1362</v>
+      </c>
+      <c r="I21">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -741,13 +1026,22 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
+      <c r="D22">
+        <v>1553</v>
+      </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>1734</v>
+      </c>
+      <c r="G22">
+        <v>1362</v>
+      </c>
+      <c r="I22">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -755,13 +1049,22 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
+      <c r="D23">
+        <v>1739</v>
+      </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>4699</v>
+      </c>
+      <c r="G23">
+        <v>1406</v>
+      </c>
+      <c r="I23">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -769,13 +1072,22 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
+      <c r="D24">
+        <v>1924</v>
+      </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>3156</v>
+      </c>
+      <c r="G24">
+        <v>1591</v>
+      </c>
+      <c r="I24">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -783,13 +1095,22 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
+      <c r="D25">
+        <v>1948</v>
+      </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="G25">
+        <v>1591</v>
+      </c>
+      <c r="I25">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -797,13 +1118,22 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
+      <c r="D26">
+        <v>1972</v>
+      </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="G26">
+        <v>1666</v>
+      </c>
+      <c r="I26">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -812,12 +1142,21 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="F27">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>1689</v>
+      </c>
+      <c r="I27">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -829,68 +1168,128 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>751</v>
+      </c>
+      <c r="F28">
+        <v>90</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>775</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1068</v>
       </c>
       <c r="E29">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>801317</v>
+      </c>
+      <c r="F29">
+        <v>90</v>
+      </c>
+      <c r="G29">
+        <v>775</v>
+      </c>
+      <c r="H29">
+        <v>775</v>
+      </c>
+      <c r="I29">
+        <v>1068</v>
+      </c>
+      <c r="J29">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1513</v>
       </c>
       <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>534663</v>
+      </c>
+      <c r="G30">
+        <v>1068</v>
+      </c>
+      <c r="I30">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1558</v>
       </c>
       <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>14596</v>
+      </c>
+      <c r="G31">
+        <v>1068</v>
+      </c>
+      <c r="I31">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1703</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>44062</v>
+      </c>
+      <c r="G32">
+        <v>1112</v>
+      </c>
+      <c r="I32">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -898,13 +1297,22 @@
       <c r="C33" t="b">
         <v>0</v>
       </c>
+      <c r="D33">
+        <v>1874</v>
+      </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>73316</v>
+      </c>
+      <c r="G33">
+        <v>1256</v>
+      </c>
+      <c r="I33">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -912,13 +1320,22 @@
       <c r="C34" t="b">
         <v>0</v>
       </c>
+      <c r="D34">
+        <v>1950</v>
+      </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>9452</v>
+      </c>
+      <c r="G34">
+        <v>1256</v>
+      </c>
+      <c r="I34">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -926,13 +1343,22 @@
       <c r="C35" t="b">
         <v>0</v>
       </c>
+      <c r="D35">
+        <v>1976</v>
+      </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>2892</v>
+      </c>
+      <c r="G35">
+        <v>1331</v>
+      </c>
+      <c r="I35">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -941,12 +1367,21 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>18384</v>
+      </c>
+      <c r="F36">
+        <v>61</v>
+      </c>
+      <c r="G36">
+        <v>1356</v>
+      </c>
+      <c r="I36">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -958,26 +1393,59 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>751</v>
+      </c>
+      <c r="F37">
+        <v>61</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>840</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1138</v>
       </c>
       <c r="E38">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>853887</v>
+      </c>
+      <c r="F38">
+        <v>61</v>
+      </c>
+      <c r="G38">
+        <v>840</v>
+      </c>
+      <c r="H38">
+        <v>840</v>
+      </c>
+      <c r="I38">
+        <v>1138</v>
+      </c>
+      <c r="J38">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -985,13 +1453,22 @@
       <c r="C39" t="b">
         <v>0</v>
       </c>
+      <c r="D39">
+        <v>1326</v>
+      </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>534664</v>
+      </c>
+      <c r="G39">
+        <v>1138</v>
+      </c>
+      <c r="I39">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -999,13 +1476,22 @@
       <c r="C40" t="b">
         <v>0</v>
       </c>
+      <c r="D40">
+        <v>1371</v>
+      </c>
       <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>11723</v>
+      </c>
+      <c r="G40">
+        <v>1138</v>
+      </c>
+      <c r="I40">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -1013,13 +1499,22 @@
       <c r="C41" t="b">
         <v>0</v>
       </c>
+      <c r="D41">
+        <v>1658</v>
+      </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>60940</v>
+      </c>
+      <c r="G41">
+        <v>1182</v>
+      </c>
+      <c r="I41">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -1027,13 +1522,22 @@
       <c r="C42" t="b">
         <v>0</v>
       </c>
+      <c r="D42">
+        <v>1837</v>
+      </c>
       <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>31886</v>
+      </c>
+      <c r="G42">
+        <v>1468</v>
+      </c>
+      <c r="I42">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -1041,13 +1545,22 @@
       <c r="C43" t="b">
         <v>0</v>
       </c>
+      <c r="D43">
+        <v>1913</v>
+      </c>
       <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>3148</v>
+      </c>
+      <c r="G43">
+        <v>1468</v>
+      </c>
+      <c r="I43">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>10</v>
@@ -1055,13 +1568,22 @@
       <c r="C44" t="b">
         <v>0</v>
       </c>
+      <c r="D44">
+        <v>1942</v>
+      </c>
       <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>772</v>
+      </c>
+      <c r="G44">
+        <v>1543</v>
+      </c>
+      <c r="I44">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -1070,12 +1592,21 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>1662</v>
+      </c>
+      <c r="F45">
+        <v>75</v>
+      </c>
+      <c r="G45">
+        <v>1571</v>
+      </c>
+      <c r="I45">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>11</v>
@@ -1087,12 +1618,27 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>751</v>
+      </c>
+      <c r="F46">
+        <v>81</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>203</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -1104,12 +1650,27 @@
         <v>377</v>
       </c>
       <c r="E47">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>282376</v>
+      </c>
+      <c r="F47">
+        <v>81</v>
+      </c>
+      <c r="G47">
+        <v>203</v>
+      </c>
+      <c r="H47">
+        <v>203</v>
+      </c>
+      <c r="I47">
+        <v>377</v>
+      </c>
+      <c r="J47">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -1117,13 +1678,22 @@
       <c r="C48" t="b">
         <v>0</v>
       </c>
+      <c r="D48">
+        <v>671</v>
+      </c>
       <c r="E48">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>851689</v>
+      </c>
+      <c r="G48">
+        <v>377</v>
+      </c>
+      <c r="I48">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>11</v>
@@ -1131,13 +1701,22 @@
       <c r="C49" t="b">
         <v>0</v>
       </c>
+      <c r="D49">
+        <v>716</v>
+      </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>14735</v>
+      </c>
+      <c r="G49">
+        <v>377</v>
+      </c>
+      <c r="I49">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B50">
         <v>11</v>
@@ -1145,13 +1724,22 @@
       <c r="C50" t="b">
         <v>0</v>
       </c>
+      <c r="D50">
+        <v>798</v>
+      </c>
       <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>26717</v>
+      </c>
+      <c r="G50">
+        <v>421</v>
+      </c>
+      <c r="I50">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -1159,13 +1747,22 @@
       <c r="C51" t="b">
         <v>0</v>
       </c>
+      <c r="D51">
+        <v>1599</v>
+      </c>
       <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>170552</v>
+      </c>
+      <c r="G51">
+        <v>502</v>
+      </c>
+      <c r="I51">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B52">
         <v>11</v>
@@ -1173,13 +1770,22 @@
       <c r="C52" t="b">
         <v>0</v>
       </c>
+      <c r="D52">
+        <v>1675</v>
+      </c>
       <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>19165</v>
+      </c>
+      <c r="G52">
+        <v>502</v>
+      </c>
+      <c r="I52">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B53">
         <v>11</v>
@@ -1187,13 +1793,22 @@
       <c r="C53" t="b">
         <v>0</v>
       </c>
+      <c r="D53">
+        <v>1703</v>
+      </c>
       <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>6861</v>
+      </c>
+      <c r="G53">
+        <v>577</v>
+      </c>
+      <c r="I53">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B54">
         <v>11</v>
@@ -1202,82 +1817,154 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>126587</v>
+      </c>
+      <c r="F54">
+        <v>81</v>
+      </c>
+      <c r="G54">
+        <v>604</v>
+      </c>
+      <c r="I54">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B55">
         <v>12</v>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>230</v>
       </c>
       <c r="E55">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>203615</v>
+      </c>
+      <c r="F55">
+        <v>44</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>289</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>12</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>483</v>
       </c>
       <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>171370</v>
+      </c>
+      <c r="F56">
+        <v>44</v>
+      </c>
+      <c r="G56">
+        <v>289</v>
+      </c>
+      <c r="H56">
+        <v>289</v>
+      </c>
+      <c r="I56">
+        <v>483</v>
+      </c>
+      <c r="J56">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B57">
         <v>12</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>726</v>
       </c>
       <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>730645</v>
+      </c>
+      <c r="G57">
+        <v>483</v>
+      </c>
+      <c r="I57">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B58">
         <v>12</v>
       </c>
       <c r="C58" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>771</v>
       </c>
       <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>19942</v>
+      </c>
+      <c r="G58">
+        <v>483</v>
+      </c>
+      <c r="I58">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B59">
         <v>12</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>923</v>
       </c>
       <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>63954</v>
+      </c>
+      <c r="G59">
+        <v>527</v>
+      </c>
+      <c r="I59">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B60">
         <v>12</v>
@@ -1285,13 +1972,22 @@
       <c r="C60" t="b">
         <v>0</v>
       </c>
+      <c r="D60">
+        <v>1928</v>
+      </c>
       <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>162503</v>
+      </c>
+      <c r="G60">
+        <v>678</v>
+      </c>
+      <c r="I60">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B61">
         <v>12</v>
@@ -1299,13 +1995,22 @@
       <c r="C61" t="b">
         <v>0</v>
       </c>
+      <c r="D61">
+        <v>1205</v>
+      </c>
       <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>20381</v>
+      </c>
+      <c r="G61">
+        <v>678</v>
+      </c>
+      <c r="I61">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B62">
         <v>12</v>
@@ -1313,13 +2018,22 @@
       <c r="C62" t="b">
         <v>0</v>
       </c>
+      <c r="D62">
+        <v>1233</v>
+      </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>7127</v>
+      </c>
+      <c r="G62">
+        <v>753</v>
+      </c>
+      <c r="I62">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B63">
         <v>12</v>
@@ -1328,646 +2042,1531 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>119896</v>
+      </c>
+      <c r="F63">
+        <v>86</v>
+      </c>
+      <c r="G63">
+        <v>780</v>
+      </c>
+      <c r="I63">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B64">
+        <v>16</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>832</v>
+      </c>
+      <c r="E64">
+        <v>994076</v>
+      </c>
+      <c r="F64">
+        <v>75</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1677</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1935</v>
+      </c>
+      <c r="E65">
+        <v>482582</v>
+      </c>
+      <c r="F65">
+        <v>75</v>
+      </c>
+      <c r="G65">
+        <v>1677</v>
+      </c>
+      <c r="H65">
+        <v>1677</v>
+      </c>
+      <c r="I65">
+        <v>1935</v>
+      </c>
+      <c r="J65">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>22775</v>
+      </c>
+      <c r="G66">
+        <v>1935</v>
+      </c>
+      <c r="I66">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>16</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1935</v>
+      </c>
+      <c r="I67">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>16</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1979</v>
+      </c>
+      <c r="I68">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>16</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>2126</v>
+      </c>
+      <c r="I69">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70">
+        <v>16</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>2126</v>
+      </c>
+      <c r="I70">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71">
+        <v>16</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>2201</v>
+      </c>
+      <c r="I71">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>90</v>
+      </c>
+      <c r="G72">
+        <v>2226</v>
+      </c>
+      <c r="I72">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73">
         <v>19</v>
       </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65">
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>751</v>
+      </c>
+      <c r="F73">
+        <v>44</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74">
         <v>19</v>
       </c>
-      <c r="C65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66">
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>29</v>
+      </c>
+      <c r="E74">
+        <v>21028</v>
+      </c>
+      <c r="F74">
+        <v>44</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>29</v>
+      </c>
+      <c r="J74">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75">
         <v>19</v>
       </c>
-      <c r="C66" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67">
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>152</v>
+      </c>
+      <c r="E75">
+        <v>114861</v>
+      </c>
+      <c r="G75">
+        <v>29</v>
+      </c>
+      <c r="I75">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76">
         <v>19</v>
       </c>
-      <c r="C67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68">
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>197</v>
+      </c>
+      <c r="E76">
+        <v>33615</v>
+      </c>
+      <c r="G76">
+        <v>29</v>
+      </c>
+      <c r="I76">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77">
         <v>19</v>
       </c>
-      <c r="C68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>386</v>
+      </c>
+      <c r="E77">
+        <v>141007</v>
+      </c>
+      <c r="G77">
+        <v>73</v>
+      </c>
+      <c r="I77">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>19</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>478</v>
+      </c>
+      <c r="E78">
+        <v>239258</v>
+      </c>
+      <c r="G78">
+        <v>261</v>
+      </c>
+      <c r="I78">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>19</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>554</v>
+      </c>
+      <c r="E79">
+        <v>55392</v>
+      </c>
+      <c r="G79">
+        <v>261</v>
+      </c>
+      <c r="I79">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80">
+        <v>19</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>582</v>
+      </c>
+      <c r="E80">
+        <v>20384</v>
+      </c>
+      <c r="G80">
+        <v>336</v>
+      </c>
+      <c r="I80">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81">
+        <v>19</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>873137</v>
+      </c>
+      <c r="F81">
+        <v>44</v>
+      </c>
+      <c r="G81">
+        <v>363</v>
+      </c>
+      <c r="I81">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
         <v>10</v>
       </c>
-      <c r="B69">
-        <v>19</v>
-      </c>
-      <c r="C69" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>751</v>
+      </c>
+      <c r="F82">
+        <v>86</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>377</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
         <v>11</v>
       </c>
-      <c r="B70">
-        <v>19</v>
-      </c>
-      <c r="C70" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>775</v>
+      </c>
+      <c r="E83">
+        <v>581274</v>
+      </c>
+      <c r="F83">
+        <v>86</v>
+      </c>
+      <c r="G83">
+        <v>377</v>
+      </c>
+      <c r="H83">
+        <v>377</v>
+      </c>
+      <c r="I83">
+        <v>775</v>
+      </c>
+      <c r="J83">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
         <v>12</v>
       </c>
-      <c r="B71">
-        <v>19</v>
-      </c>
-      <c r="C71" t="b">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
+      <c r="B84">
+        <v>20</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1706</v>
+      </c>
+      <c r="E84">
+        <v>729951</v>
+      </c>
+      <c r="G84">
+        <v>775</v>
+      </c>
+      <c r="I84">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
         <v>13</v>
       </c>
-      <c r="B72">
-        <v>19</v>
-      </c>
-      <c r="C72" t="b">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73">
+      <c r="B85">
         <v>20</v>
       </c>
-      <c r="C73" t="b">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74">
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1751</v>
+      </c>
+      <c r="E85">
+        <v>13861</v>
+      </c>
+      <c r="G85">
+        <v>775</v>
+      </c>
+      <c r="I85">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86">
         <v>20</v>
       </c>
-      <c r="C74" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75">
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1903</v>
+      </c>
+      <c r="E86">
+        <v>42095</v>
+      </c>
+      <c r="G86">
+        <v>819</v>
+      </c>
+      <c r="I86">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87">
         <v>20</v>
       </c>
-      <c r="C75" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76">
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1334</v>
+      </c>
+      <c r="E87">
+        <v>83829</v>
+      </c>
+      <c r="G87">
+        <v>970</v>
+      </c>
+      <c r="I87">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88">
         <v>20</v>
       </c>
-      <c r="C76" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77">
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>1410</v>
+      </c>
+      <c r="E88">
+        <v>10445</v>
+      </c>
+      <c r="G88">
+        <v>970</v>
+      </c>
+      <c r="I88">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89">
         <v>20</v>
       </c>
-      <c r="C77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1437</v>
+      </c>
+      <c r="E89">
+        <v>3303</v>
+      </c>
+      <c r="G89">
+        <v>1045</v>
+      </c>
+      <c r="I89">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90">
+        <v>20</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>33924</v>
+      </c>
+      <c r="F90">
+        <v>50</v>
+      </c>
+      <c r="G90">
+        <v>1071</v>
+      </c>
+      <c r="I90">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
         <v>10</v>
       </c>
-      <c r="B78">
-        <v>20</v>
-      </c>
-      <c r="C78" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
+      <c r="B91">
+        <v>21</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1024</v>
+      </c>
+      <c r="E91">
+        <v>1384292</v>
+      </c>
+      <c r="F91">
+        <v>44</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>1517</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
         <v>11</v>
       </c>
-      <c r="B79">
-        <v>20</v>
-      </c>
-      <c r="C79" t="b">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
+      <c r="B92">
+        <v>21</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1862</v>
+      </c>
+      <c r="E92">
+        <v>91018</v>
+      </c>
+      <c r="F92">
+        <v>44</v>
+      </c>
+      <c r="G92">
+        <v>1517</v>
+      </c>
+      <c r="H92">
+        <v>1517</v>
+      </c>
+      <c r="I92">
+        <v>1862</v>
+      </c>
+      <c r="J92">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
         <v>12</v>
       </c>
-      <c r="B80">
-        <v>20</v>
-      </c>
-      <c r="C80" t="b">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
+      <c r="B93">
+        <v>21</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>1970</v>
+      </c>
+      <c r="E93">
+        <v>23938</v>
+      </c>
+      <c r="G93">
+        <v>1862</v>
+      </c>
+      <c r="I93">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
         <v>13</v>
       </c>
-      <c r="B81">
-        <v>20</v>
-      </c>
-      <c r="C81" t="b">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82">
+      <c r="B94">
+        <v>21</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>1966</v>
+      </c>
+      <c r="E94">
+        <v>152</v>
+      </c>
+      <c r="G94">
+        <v>1862</v>
+      </c>
+      <c r="I94">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95">
+        <v>21</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>33</v>
+      </c>
+      <c r="G95">
+        <v>1906</v>
+      </c>
+      <c r="I95">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>21</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>2121</v>
+      </c>
+      <c r="I96">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>21</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>2121</v>
+      </c>
+      <c r="I97">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98">
+        <v>21</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>2196</v>
+      </c>
+      <c r="I98">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99">
+        <v>21</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>56</v>
+      </c>
+      <c r="G99">
+        <v>2221</v>
+      </c>
+      <c r="I99">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100">
         <v>24</v>
       </c>
-      <c r="C82" t="b">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83">
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>751</v>
+      </c>
+      <c r="F100">
+        <v>56</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>483</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101">
         <v>24</v>
       </c>
-      <c r="C83" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84">
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>840</v>
+      </c>
+      <c r="E101">
+        <v>630089</v>
+      </c>
+      <c r="F101">
+        <v>56</v>
+      </c>
+      <c r="G101">
+        <v>483</v>
+      </c>
+      <c r="H101">
+        <v>483</v>
+      </c>
+      <c r="I101">
+        <v>840</v>
+      </c>
+      <c r="J101">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102">
         <v>24</v>
       </c>
-      <c r="C84" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85">
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>1696</v>
+      </c>
+      <c r="E102">
+        <v>712559</v>
+      </c>
+      <c r="G102">
+        <v>840</v>
+      </c>
+      <c r="I102">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103">
         <v>24</v>
       </c>
-      <c r="C85" t="b">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86">
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>1741</v>
+      </c>
+      <c r="E103">
+        <v>11895</v>
+      </c>
+      <c r="G103">
+        <v>840</v>
+      </c>
+      <c r="I103">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104">
         <v>24</v>
       </c>
-      <c r="C86" t="b">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1955</v>
+      </c>
+      <c r="E104">
+        <v>51033</v>
+      </c>
+      <c r="G104">
+        <v>884</v>
+      </c>
+      <c r="I104">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105">
+        <v>24</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>1887</v>
+      </c>
+      <c r="E105">
+        <v>63365</v>
+      </c>
+      <c r="G105">
+        <v>1097</v>
+      </c>
+      <c r="I105">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106">
+        <v>24</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>1963</v>
+      </c>
+      <c r="E106">
+        <v>7163</v>
+      </c>
+      <c r="G106">
+        <v>1097</v>
+      </c>
+      <c r="I106">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107">
+        <v>24</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>1993</v>
+      </c>
+      <c r="E107">
+        <v>2633</v>
+      </c>
+      <c r="G107">
+        <v>1172</v>
+      </c>
+      <c r="I107">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108">
+        <v>24</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>19945</v>
+      </c>
+      <c r="F108">
+        <v>61</v>
+      </c>
+      <c r="G108">
+        <v>1201</v>
+      </c>
+      <c r="I108">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
         <v>10</v>
       </c>
-      <c r="B87">
-        <v>24</v>
-      </c>
-      <c r="C87" t="b">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
+      <c r="B109">
+        <v>25</v>
+      </c>
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1106</v>
+      </c>
+      <c r="E109">
+        <v>1471646</v>
+      </c>
+      <c r="F109">
+        <v>56</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1138</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
         <v>11</v>
       </c>
-      <c r="B88">
-        <v>24</v>
-      </c>
-      <c r="C88" t="b">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
+      <c r="B110">
+        <v>25</v>
+      </c>
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1517</v>
+      </c>
+      <c r="E110">
+        <v>5457</v>
+      </c>
+      <c r="F110">
+        <v>56</v>
+      </c>
+      <c r="G110">
+        <v>1138</v>
+      </c>
+      <c r="H110">
+        <v>1138</v>
+      </c>
+      <c r="I110">
+        <v>1517</v>
+      </c>
+      <c r="J110">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
         <v>12</v>
       </c>
-      <c r="B89">
-        <v>24</v>
-      </c>
-      <c r="C89" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
+      <c r="B111">
+        <v>25</v>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>1693</v>
+      </c>
+      <c r="E111">
+        <v>22024</v>
+      </c>
+      <c r="G111">
+        <v>1517</v>
+      </c>
+      <c r="I111">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
         <v>13</v>
       </c>
-      <c r="B90">
-        <v>24</v>
-      </c>
-      <c r="C90" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91">
+      <c r="B112">
         <v>25</v>
       </c>
-      <c r="C91" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92">
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>1738</v>
+      </c>
+      <c r="E112">
+        <v>45</v>
+      </c>
+      <c r="G112">
+        <v>1517</v>
+      </c>
+      <c r="I112">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113">
         <v>25</v>
       </c>
-      <c r="C92" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93">
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>261</v>
+      </c>
+      <c r="G113">
+        <v>1561</v>
+      </c>
+      <c r="I113">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114">
         <v>25</v>
       </c>
-      <c r="C93" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94">
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>1849</v>
+      </c>
+      <c r="I114">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115">
         <v>25</v>
       </c>
-      <c r="C94" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95">
+      <c r="C115" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>1849</v>
+      </c>
+      <c r="I115">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116">
         <v>25</v>
       </c>
-      <c r="C95" t="b">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>1924</v>
+      </c>
+      <c r="I116">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117">
+        <v>25</v>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>75</v>
+      </c>
+      <c r="G117">
+        <v>1954</v>
+      </c>
+      <c r="I117">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
         <v>10</v>
       </c>
-      <c r="B96">
-        <v>25</v>
-      </c>
-      <c r="C96" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
+      <c r="B118">
+        <v>27</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1909</v>
+      </c>
+      <c r="E118">
+        <v>1495518</v>
+      </c>
+      <c r="F118">
+        <v>90</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>1362</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
         <v>11</v>
       </c>
-      <c r="B97">
-        <v>25</v>
-      </c>
-      <c r="C97" t="b">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
+      <c r="B119">
+        <v>27</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1910</v>
+      </c>
+      <c r="E119">
+        <v>761</v>
+      </c>
+      <c r="F119">
+        <v>90</v>
+      </c>
+      <c r="G119">
+        <v>1362</v>
+      </c>
+      <c r="H119">
+        <v>1362</v>
+      </c>
+      <c r="I119">
+        <v>1677</v>
+      </c>
+      <c r="J119">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
         <v>12</v>
       </c>
-      <c r="B98">
-        <v>25</v>
-      </c>
-      <c r="C98" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
+      <c r="B120">
+        <v>27</v>
+      </c>
+      <c r="C120" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>3154</v>
+      </c>
+      <c r="G120">
+        <v>1677</v>
+      </c>
+      <c r="I120">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
         <v>13</v>
       </c>
-      <c r="B99">
-        <v>25</v>
-      </c>
-      <c r="C99" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100">
+      <c r="B121">
         <v>27</v>
       </c>
-      <c r="C100" t="b">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101">
+      <c r="C121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>1677</v>
+      </c>
+      <c r="I121">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122">
         <v>27</v>
       </c>
-      <c r="C101" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102">
+      <c r="C122" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>1721</v>
+      </c>
+      <c r="I122">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123">
         <v>27</v>
       </c>
-      <c r="C102" t="b">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103">
+      <c r="C123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>1930</v>
+      </c>
+      <c r="I123">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124">
         <v>27</v>
       </c>
-      <c r="C103" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104">
+      <c r="C124" t="b">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>1930</v>
+      </c>
+      <c r="I124">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125">
         <v>27</v>
       </c>
-      <c r="C104" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B105">
+      <c r="C125" t="b">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>2005</v>
+      </c>
+      <c r="I125">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126">
         <v>27</v>
       </c>
-      <c r="C105" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106">
-        <v>27</v>
-      </c>
-      <c r="C106" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107">
-        <v>27</v>
-      </c>
-      <c r="C107" t="b">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108">
-        <v>27</v>
-      </c>
-      <c r="C108" t="b">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
+      <c r="C126" t="b">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>81</v>
+      </c>
+      <c r="G126">
+        <v>2036</v>
+      </c>
+      <c r="I126">
+        <v>2036</v>
       </c>
     </row>
   </sheetData>
